--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1227110.912842222</v>
+        <v>1222698.780254383</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094827</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094829</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="D2" t="n">
-        <v>696384.8879094828</v>
+        <v>696384.8879094826</v>
       </c>
       <c r="E2" t="n">
-        <v>208787.2790234635</v>
+        <v>208787.2790234636</v>
       </c>
       <c r="F2" t="n">
         <v>369544.4398770484</v>
       </c>
       <c r="G2" t="n">
-        <v>369544.4398770478</v>
+        <v>369544.4398770484</v>
       </c>
       <c r="H2" t="n">
         <v>369544.4398770484</v>
@@ -26338,19 +26338,19 @@
         <v>361139.1126270826</v>
       </c>
       <c r="K2" t="n">
+        <v>471408.6233917504</v>
+      </c>
+      <c r="L2" t="n">
         <v>471408.6233917498</v>
       </c>
-      <c r="L2" t="n">
-        <v>471408.6233917506</v>
-      </c>
       <c r="M2" t="n">
-        <v>471408.6233917504</v>
+        <v>471408.6233917498</v>
       </c>
       <c r="N2" t="n">
-        <v>471408.6233917503</v>
+        <v>471408.6233917498</v>
       </c>
       <c r="O2" t="n">
-        <v>457182.2191670993</v>
+        <v>457182.2191670995</v>
       </c>
       <c r="P2" t="n">
         <v>182762.5894034589</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124455.3967726702</v>
+        <v>124982.7419867166</v>
       </c>
       <c r="F4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="G4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="H4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="I4" t="n">
-        <v>232402.3315691932</v>
+        <v>232929.6767832395</v>
       </c>
       <c r="J4" t="n">
-        <v>226758.2326825385</v>
+        <v>227285.5778965848</v>
       </c>
       <c r="K4" t="n">
-        <v>300803.1811336951</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="L4" t="n">
-        <v>300803.1811336952</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="M4" t="n">
-        <v>300803.1811336951</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="N4" t="n">
-        <v>300803.1811336952</v>
+        <v>301330.5263477415</v>
       </c>
       <c r="O4" t="n">
-        <v>291250.2833276311</v>
+        <v>291777.6285416774</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210884.6425745639</v>
+        <v>210357.2973605174</v>
       </c>
       <c r="C6" t="n">
-        <v>210884.6425745641</v>
+        <v>210357.2973605174</v>
       </c>
       <c r="D6" t="n">
-        <v>210884.642574564</v>
+        <v>210357.2973605174</v>
       </c>
       <c r="E6" t="n">
-        <v>73767.88596035035</v>
+        <v>73240.54074630406</v>
       </c>
       <c r="F6" t="n">
-        <v>66020.25455226577</v>
+        <v>65492.90933821944</v>
       </c>
       <c r="G6" t="n">
-        <v>129469.862172337</v>
+        <v>128942.5169582912</v>
       </c>
       <c r="H6" t="n">
-        <v>129469.8621723376</v>
+        <v>128942.5169582912</v>
       </c>
       <c r="I6" t="n">
-        <v>129469.8621723375</v>
+        <v>128942.5169582911</v>
       </c>
       <c r="J6" t="n">
-        <v>120883.1509593353</v>
+        <v>120355.805745289</v>
       </c>
       <c r="K6" t="n">
-        <v>48534.80491078678</v>
+        <v>48007.45969674102</v>
       </c>
       <c r="L6" t="n">
-        <v>158409.618641356</v>
+        <v>157882.2734273089</v>
       </c>
       <c r="M6" t="n">
-        <v>158409.6186413559</v>
+        <v>157882.2734273089</v>
       </c>
       <c r="N6" t="n">
-        <v>158409.6186413557</v>
+        <v>157882.2734273089</v>
       </c>
       <c r="O6" t="n">
-        <v>154385.6036950742</v>
+        <v>153858.2584810281</v>
       </c>
       <c r="P6" t="n">
-        <v>75782.52908605884</v>
+        <v>75255.18387201249</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1222698.780254383</v>
+        <v>1206347.993526373</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5923717.618902254</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11192483.67277902</v>
+        <v>13149067.94790838</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6836117.846540689</v>
+        <v>6326784.984079319</v>
       </c>
     </row>
     <row r="11">
@@ -8690,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,19 +8853,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8927,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,19 +9090,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9164,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,19 +9327,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9401,25 +9403,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,19 +9564,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9638,25 +9640,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9875,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,19 +10038,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10112,25 +10114,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,19 +10275,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10349,25 +10351,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,19 +10512,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,25 +10588,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,19 +10749,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10823,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,19 +10986,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11060,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,19 +11223,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11297,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,19 +11460,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>129.0262495446563</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>118.0213988638392</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>60.15144880217285</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>56.39435553063284</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>5.929244339580947</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>89.41013973822668</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>142.0421789768401</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>205.4417517592153</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.4725427837783</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C14" t="n">
-        <v>274.0115928913053</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D14" t="n">
-        <v>263.4217427409807</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E14" t="n">
-        <v>290.6690711925595</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F14" t="n">
-        <v>315.6147468620092</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G14" t="n">
-        <v>324.0414386354328</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H14" t="n">
-        <v>248.2135032360649</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I14" t="n">
-        <v>119.2145906907037</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.60781906144743</v>
+        <v>60.15144880217285</v>
       </c>
       <c r="S14" t="n">
-        <v>117.7587707065431</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8345506844291</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0843540281342</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V14" t="n">
-        <v>236.4909595904327</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W14" t="n">
-        <v>257.9796698377107</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X14" t="n">
-        <v>278.4698017987668</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.9766397763514</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.27188477016509</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C15" t="n">
-        <v>81.44720010861349</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D15" t="n">
-        <v>56.1837666849365</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E15" t="n">
-        <v>66.38378157569869</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F15" t="n">
-        <v>53.80791351368163</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G15" t="n">
-        <v>46.08221828350838</v>
+        <v>56.39435553063284</v>
       </c>
       <c r="H15" t="n">
-        <v>20.97414535679421</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.929244339580947</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.896535272940881</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S15" t="n">
-        <v>80.42187222413557</v>
+        <v>89.41013973822668</v>
       </c>
       <c r="T15" t="n">
-        <v>108.9034298151194</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U15" t="n">
-        <v>134.6800832012726</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V15" t="n">
-        <v>141.539288269723</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W15" t="n">
-        <v>160.4336842812174</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X15" t="n">
-        <v>114.5116863237752</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.4213968976021</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.57068130223504</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98552221892558</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3541741385101</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17266376686692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F16" t="n">
-        <v>54.15974914322899</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G16" t="n">
-        <v>76.72968047875651</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H16" t="n">
-        <v>70.96587362773732</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I16" t="n">
-        <v>64.18917604755603</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J16" t="n">
-        <v>2.097881236970522</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.03209249746723</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S16" t="n">
-        <v>132.75529915727</v>
+        <v>142.0421789768401</v>
       </c>
       <c r="T16" t="n">
-        <v>136.6842905485792</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U16" t="n">
-        <v>195.0577304767886</v>
+        <v>205.4417517592153</v>
       </c>
       <c r="V16" t="n">
-        <v>160.8763444441257</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W16" t="n">
-        <v>195.2616994568887</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X16" t="n">
-        <v>134.4483565093349</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3233544723925</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.4725427837783</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C17" t="n">
-        <v>274.0115928913053</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D17" t="n">
-        <v>263.4217427409807</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6690711925595</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F17" t="n">
-        <v>315.6147468620092</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G17" t="n">
-        <v>324.0414386354328</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H17" t="n">
-        <v>248.2135032360649</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I17" t="n">
-        <v>119.2145906907037</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.60781906144743</v>
+        <v>60.15144880217285</v>
       </c>
       <c r="S17" t="n">
-        <v>117.7587707065431</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T17" t="n">
-        <v>131.8345506844291</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U17" t="n">
-        <v>160.0843540281342</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V17" t="n">
-        <v>236.4909595904327</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W17" t="n">
-        <v>257.9796698377107</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X17" t="n">
-        <v>278.4698017987668</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.9766397763514</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.27188477016509</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C18" t="n">
-        <v>81.44720010861349</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D18" t="n">
-        <v>56.1837666849365</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E18" t="n">
-        <v>66.38378157569869</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F18" t="n">
-        <v>53.80791351368163</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G18" t="n">
-        <v>46.08221828350838</v>
+        <v>56.39435553063284</v>
       </c>
       <c r="H18" t="n">
-        <v>20.97414535679421</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.929244339580947</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.896535272940881</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S18" t="n">
-        <v>80.42187222413557</v>
+        <v>89.41013973822668</v>
       </c>
       <c r="T18" t="n">
-        <v>108.9034298151194</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U18" t="n">
-        <v>134.6800832012726</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V18" t="n">
-        <v>141.539288269723</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W18" t="n">
-        <v>160.4336842812174</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X18" t="n">
-        <v>114.5116863237752</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.4213968976021</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.57068130223504</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C19" t="n">
-        <v>75.98552221892558</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D19" t="n">
-        <v>57.3541741385101</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E19" t="n">
-        <v>55.17266376686692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F19" t="n">
-        <v>54.15974914322899</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G19" t="n">
-        <v>76.72968047875651</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H19" t="n">
-        <v>70.96587362773732</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I19" t="n">
-        <v>64.18917604755603</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J19" t="n">
-        <v>2.097881236970522</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.03209249746723</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S19" t="n">
-        <v>132.75529915727</v>
+        <v>142.0421789768401</v>
       </c>
       <c r="T19" t="n">
-        <v>136.6842905485792</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U19" t="n">
-        <v>195.0577304767886</v>
+        <v>205.4417517592153</v>
       </c>
       <c r="V19" t="n">
-        <v>160.8763444441257</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W19" t="n">
-        <v>195.2616994568887</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X19" t="n">
-        <v>134.4483565093349</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3233544723925</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>291.4725427837783</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0115928913053</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D20" t="n">
-        <v>263.4217427409807</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6690711925595</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F20" t="n">
-        <v>315.6147468620092</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G20" t="n">
-        <v>324.0414386354328</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H20" t="n">
-        <v>248.2135032360649</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I20" t="n">
-        <v>119.2145906907037</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.60781906144743</v>
+        <v>60.15144880217285</v>
       </c>
       <c r="S20" t="n">
-        <v>117.7587707065431</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T20" t="n">
-        <v>131.8345506844291</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U20" t="n">
-        <v>160.0843540281342</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4909595904327</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W20" t="n">
-        <v>257.9796698377107</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X20" t="n">
-        <v>278.4698017987668</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y20" t="n">
-        <v>294.9766397763514</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.27188477016509</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C21" t="n">
-        <v>81.44720010861349</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D21" t="n">
-        <v>56.1837666849365</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E21" t="n">
-        <v>66.38378157569869</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F21" t="n">
-        <v>53.80791351368163</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G21" t="n">
-        <v>46.08221828350838</v>
+        <v>56.39435553063284</v>
       </c>
       <c r="H21" t="n">
-        <v>20.97414535679421</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.929244339580947</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.896535272940881</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S21" t="n">
-        <v>80.42187222413557</v>
+        <v>89.41013973822668</v>
       </c>
       <c r="T21" t="n">
-        <v>108.9034298151194</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U21" t="n">
-        <v>134.6800832012726</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V21" t="n">
-        <v>141.539288269723</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W21" t="n">
-        <v>160.4336842812174</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X21" t="n">
-        <v>114.5116863237752</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.4213968976021</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.57068130223504</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C22" t="n">
-        <v>75.98552221892558</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D22" t="n">
-        <v>57.3541741385101</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E22" t="n">
-        <v>55.17266376686692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F22" t="n">
-        <v>54.15974914322899</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G22" t="n">
-        <v>76.72968047875651</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H22" t="n">
-        <v>70.96587362773732</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I22" t="n">
-        <v>64.18917604755603</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J22" t="n">
-        <v>2.097881236970522</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.03209249746723</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S22" t="n">
-        <v>132.75529915727</v>
+        <v>142.0421789768401</v>
       </c>
       <c r="T22" t="n">
-        <v>136.6842905485792</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U22" t="n">
-        <v>195.0577304767886</v>
+        <v>205.4417517592153</v>
       </c>
       <c r="V22" t="n">
-        <v>160.8763444441257</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W22" t="n">
-        <v>195.2616994568887</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X22" t="n">
-        <v>134.4483565093349</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.3233544723925</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>291.4725427837783</v>
+        <v>301.8600087803741</v>
       </c>
       <c r="C23" t="n">
-        <v>274.0115928913053</v>
+        <v>284.3990588879011</v>
       </c>
       <c r="D23" t="n">
-        <v>263.4217427409807</v>
+        <v>273.8092087375765</v>
       </c>
       <c r="E23" t="n">
-        <v>290.6690711925595</v>
+        <v>301.0565371891553</v>
       </c>
       <c r="F23" t="n">
-        <v>315.6147468620092</v>
+        <v>326.002212858605</v>
       </c>
       <c r="G23" t="n">
-        <v>324.0414386354328</v>
+        <v>334.288115644213</v>
       </c>
       <c r="H23" t="n">
-        <v>248.2135032360649</v>
+        <v>257.1591140111944</v>
       </c>
       <c r="I23" t="n">
-        <v>119.2145906907037</v>
+        <v>124.1742892345393</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.60781906144743</v>
+        <v>60.15144880217285</v>
       </c>
       <c r="S23" t="n">
-        <v>117.7587707065431</v>
+        <v>124.9380076432914</v>
       </c>
       <c r="T23" t="n">
-        <v>131.8345506844291</v>
+        <v>141.6057128868622</v>
       </c>
       <c r="U23" t="n">
-        <v>160.0843540281342</v>
+        <v>170.4605569057048</v>
       </c>
       <c r="V23" t="n">
-        <v>236.4909595904327</v>
+        <v>246.8784255870285</v>
       </c>
       <c r="W23" t="n">
-        <v>257.9796698377107</v>
+        <v>268.3671358343066</v>
       </c>
       <c r="X23" t="n">
-        <v>278.4698017987668</v>
+        <v>288.8572677953626</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.9766397763514</v>
+        <v>305.3641057729471</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.27188477016509</v>
+        <v>85.65935076676088</v>
       </c>
       <c r="C24" t="n">
-        <v>81.44720010861349</v>
+        <v>91.83466610520928</v>
       </c>
       <c r="D24" t="n">
-        <v>56.1837666849365</v>
+        <v>66.57123268153229</v>
       </c>
       <c r="E24" t="n">
-        <v>66.38378157569869</v>
+        <v>76.77124757229448</v>
       </c>
       <c r="F24" t="n">
-        <v>53.80791351368163</v>
+        <v>64.19537951027742</v>
       </c>
       <c r="G24" t="n">
-        <v>46.08221828350838</v>
+        <v>56.39435553063284</v>
       </c>
       <c r="H24" t="n">
-        <v>20.97414535679421</v>
+        <v>30.63409422033799</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.929244339580947</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.896535272940881</v>
+        <v>14.60701101727311</v>
       </c>
       <c r="S24" t="n">
-        <v>80.42187222413557</v>
+        <v>89.41013973822668</v>
       </c>
       <c r="T24" t="n">
-        <v>108.9034298151194</v>
+        <v>118.9872680890654</v>
       </c>
       <c r="U24" t="n">
-        <v>134.6800832012726</v>
+        <v>145.0625933590874</v>
       </c>
       <c r="V24" t="n">
-        <v>141.539288269723</v>
+        <v>151.9267542663188</v>
       </c>
       <c r="W24" t="n">
-        <v>160.4336842812174</v>
+        <v>170.8211502778132</v>
       </c>
       <c r="X24" t="n">
-        <v>114.5116863237752</v>
+        <v>124.899152320371</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.4213968976021</v>
+        <v>124.8088628941979</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.57068130223504</v>
+        <v>98.95814729883084</v>
       </c>
       <c r="C25" t="n">
-        <v>75.98552221892558</v>
+        <v>86.37298821552137</v>
       </c>
       <c r="D25" t="n">
-        <v>57.3541741385101</v>
+        <v>67.7416401351059</v>
       </c>
       <c r="E25" t="n">
-        <v>55.17266376686692</v>
+        <v>65.56012976346271</v>
       </c>
       <c r="F25" t="n">
-        <v>54.15974914322899</v>
+        <v>64.54721513982479</v>
       </c>
       <c r="G25" t="n">
-        <v>76.72968047875651</v>
+        <v>87.05399338225224</v>
       </c>
       <c r="H25" t="n">
-        <v>70.96587362773732</v>
+        <v>80.79185121477074</v>
       </c>
       <c r="I25" t="n">
-        <v>64.18917604755603</v>
+        <v>72.6774562989245</v>
       </c>
       <c r="J25" t="n">
-        <v>2.097881236970522</v>
+        <v>8.020423551391929</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.03209249746723</v>
+        <v>93.57996578067296</v>
       </c>
       <c r="S25" t="n">
-        <v>132.75529915727</v>
+        <v>142.0421789768401</v>
       </c>
       <c r="T25" t="n">
-        <v>136.6842905485792</v>
+        <v>146.8019206019293</v>
       </c>
       <c r="U25" t="n">
-        <v>195.0577304767886</v>
+        <v>205.4417517592153</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8763444441257</v>
+        <v>171.2638104407216</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2616994568887</v>
+        <v>205.6491654534846</v>
       </c>
       <c r="X25" t="n">
-        <v>134.4483565093349</v>
+        <v>144.8358225059307</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.3233544723925</v>
+        <v>137.7108204689883</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.6961369082176</v>
+        <v>314.0160710166888</v>
       </c>
       <c r="C26" t="n">
-        <v>278.2351870157446</v>
+        <v>296.5551211242158</v>
       </c>
       <c r="D26" t="n">
-        <v>267.6453368654199</v>
+        <v>285.9652709738912</v>
       </c>
       <c r="E26" t="n">
-        <v>294.8926653169988</v>
+        <v>313.21259942547</v>
       </c>
       <c r="F26" t="n">
-        <v>319.8383409864484</v>
+        <v>338.1582750949197</v>
       </c>
       <c r="G26" t="n">
-        <v>328.265032759872</v>
+        <v>346.4441778805277</v>
       </c>
       <c r="H26" t="n">
-        <v>252.4370973605042</v>
+        <v>269.3151762475091</v>
       </c>
       <c r="I26" t="n">
-        <v>123.4381848151429</v>
+        <v>136.3303514708541</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>62.8314131858867</v>
+        <v>72.30751103848759</v>
       </c>
       <c r="S26" t="n">
-        <v>121.9823648309824</v>
+        <v>137.0940698796061</v>
       </c>
       <c r="T26" t="n">
-        <v>136.0581448088684</v>
+        <v>153.761775123177</v>
       </c>
       <c r="U26" t="n">
-        <v>164.3079481525735</v>
+        <v>182.6166191420195</v>
       </c>
       <c r="V26" t="n">
-        <v>240.7145537148719</v>
+        <v>259.0344878233432</v>
       </c>
       <c r="W26" t="n">
-        <v>262.20326396215</v>
+        <v>280.5231980706213</v>
       </c>
       <c r="X26" t="n">
-        <v>282.693395923206</v>
+        <v>301.0133300316773</v>
       </c>
       <c r="Y26" t="n">
-        <v>299.2002339007906</v>
+        <v>317.5201680092619</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.49547889460436</v>
+        <v>97.81541300307562</v>
       </c>
       <c r="C27" t="n">
-        <v>85.67079423305276</v>
+        <v>103.990728341524</v>
       </c>
       <c r="D27" t="n">
-        <v>60.40736080937577</v>
+        <v>78.72729491784703</v>
       </c>
       <c r="E27" t="n">
-        <v>70.60737570013796</v>
+        <v>88.92730980860922</v>
       </c>
       <c r="F27" t="n">
-        <v>58.0315076381209</v>
+        <v>76.35144174659216</v>
       </c>
       <c r="G27" t="n">
-        <v>50.30581240794766</v>
+        <v>68.55041776694758</v>
       </c>
       <c r="H27" t="n">
-        <v>25.19773948123348</v>
+        <v>42.79015645665272</v>
       </c>
       <c r="I27" t="n">
-        <v>2.358928096152098</v>
+        <v>18.08530657589569</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.12012939738015</v>
+        <v>26.76307325358785</v>
       </c>
       <c r="S27" t="n">
-        <v>84.64546634857484</v>
+        <v>101.5662019745414</v>
       </c>
       <c r="T27" t="n">
-        <v>113.1270239395586</v>
+        <v>131.1433303253801</v>
       </c>
       <c r="U27" t="n">
-        <v>138.9036773257118</v>
+        <v>157.2186555954021</v>
       </c>
       <c r="V27" t="n">
-        <v>145.7628823941623</v>
+        <v>164.0828165026335</v>
       </c>
       <c r="W27" t="n">
-        <v>164.6572784056566</v>
+        <v>182.9772125141279</v>
       </c>
       <c r="X27" t="n">
-        <v>118.7352804482145</v>
+        <v>137.0552145566858</v>
       </c>
       <c r="Y27" t="n">
-        <v>118.6449910220414</v>
+        <v>136.9649251305127</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.79427542667432</v>
+        <v>111.1142095351456</v>
       </c>
       <c r="C28" t="n">
-        <v>80.20911634336485</v>
+        <v>98.52905045183611</v>
       </c>
       <c r="D28" t="n">
-        <v>61.57776826294938</v>
+        <v>79.89770237142064</v>
       </c>
       <c r="E28" t="n">
-        <v>59.39625789130619</v>
+        <v>77.71619199977745</v>
       </c>
       <c r="F28" t="n">
-        <v>58.38334326766827</v>
+        <v>76.70327737613952</v>
       </c>
       <c r="G28" t="n">
-        <v>80.95327460319578</v>
+        <v>99.21005561856698</v>
       </c>
       <c r="H28" t="n">
-        <v>75.1894677521766</v>
+        <v>92.94791345108548</v>
       </c>
       <c r="I28" t="n">
-        <v>68.41277017199531</v>
+        <v>84.83351853523924</v>
       </c>
       <c r="J28" t="n">
-        <v>6.321475361409796</v>
+        <v>20.17648578770667</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>12.15606223631474</v>
       </c>
       <c r="R28" t="n">
-        <v>90.25568662190651</v>
+        <v>105.7360280169877</v>
       </c>
       <c r="S28" t="n">
-        <v>136.9788932817093</v>
+        <v>154.1982412131549</v>
       </c>
       <c r="T28" t="n">
-        <v>140.9078846730185</v>
+        <v>158.957982838244</v>
       </c>
       <c r="U28" t="n">
-        <v>199.2813246012279</v>
+        <v>217.59781399553</v>
       </c>
       <c r="V28" t="n">
-        <v>165.099938568565</v>
+        <v>183.4198726770363</v>
       </c>
       <c r="W28" t="n">
-        <v>199.485293581328</v>
+        <v>217.8052276897993</v>
       </c>
       <c r="X28" t="n">
-        <v>138.6719506337742</v>
+        <v>156.9918847422454</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.5469485968318</v>
+        <v>149.8668827053031</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>314.0160710166888</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>296.5551211242158</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>285.9652709738912</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>313.21259942547</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>338.1582750949197</v>
       </c>
       <c r="G29" t="n">
-        <v>270.2335251217512</v>
+        <v>346.4441778805277</v>
       </c>
       <c r="H29" t="n">
-        <v>194.4055897223833</v>
+        <v>269.3151762475091</v>
       </c>
       <c r="I29" t="n">
-        <v>65.40667717702203</v>
+        <v>136.3303514708541</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.799905547765803</v>
+        <v>72.30751103848759</v>
       </c>
       <c r="S29" t="n">
-        <v>63.95085719286146</v>
+        <v>137.0940698796061</v>
       </c>
       <c r="T29" t="n">
-        <v>78.02663717074748</v>
+        <v>153.761775123177</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2764405144526</v>
+        <v>182.6166191420195</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>259.0344878233432</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>280.5231980706213</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>301.0133300316773</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>317.5201680092619</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>97.81541300307562</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>103.990728341524</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>78.72729491784703</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>88.92730980860922</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>76.35144174659216</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>68.55041776694758</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>42.79015645665272</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.08530657589569</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.76307325358785</v>
       </c>
       <c r="S30" t="n">
-        <v>26.61395871045394</v>
+        <v>101.5662019745414</v>
       </c>
       <c r="T30" t="n">
-        <v>55.09551630143773</v>
+        <v>131.1433303253801</v>
       </c>
       <c r="U30" t="n">
-        <v>80.87216968759094</v>
+        <v>157.2186555954021</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>164.0828165026335</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>182.9772125141279</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>137.0552145566858</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>136.9649251305127</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>111.1142095351456</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>98.52905045183611</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>79.89770237142064</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>77.71619199977745</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>76.70327737613952</v>
       </c>
       <c r="G31" t="n">
-        <v>22.92176696507488</v>
+        <v>99.21005561856698</v>
       </c>
       <c r="H31" t="n">
-        <v>17.1579601140557</v>
+        <v>92.94791345108548</v>
       </c>
       <c r="I31" t="n">
-        <v>10.38126253387441</v>
+        <v>84.83351853523924</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.17648578770667</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>12.15606223631474</v>
       </c>
       <c r="R31" t="n">
-        <v>32.22417898378561</v>
+        <v>105.7360280169877</v>
       </c>
       <c r="S31" t="n">
-        <v>78.94738564358838</v>
+        <v>154.1982412131549</v>
       </c>
       <c r="T31" t="n">
-        <v>82.87637703489762</v>
+        <v>158.957982838244</v>
       </c>
       <c r="U31" t="n">
-        <v>141.249816963107</v>
+        <v>217.59781399553</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>183.4198726770363</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>217.8052276897993</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>156.9918847422454</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>149.8668827053031</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.6646292700967</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2036793776237</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D32" t="n">
-        <v>209.6138292272991</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8611576788779</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F32" t="n">
-        <v>261.8068333483276</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2335251217512</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H32" t="n">
-        <v>194.4055897223833</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I32" t="n">
-        <v>65.40667717702203</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.799905547765803</v>
+        <v>57.37526039277559</v>
       </c>
       <c r="S32" t="n">
-        <v>63.95085719286146</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T32" t="n">
-        <v>78.02663717074748</v>
+        <v>138.8295244774649</v>
       </c>
       <c r="U32" t="n">
-        <v>106.2764405144526</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V32" t="n">
-        <v>182.683046076751</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W32" t="n">
-        <v>204.1717563240291</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6618882850852</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.1687262626697</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.46397125648346</v>
+        <v>82.88316235736362</v>
       </c>
       <c r="C33" t="n">
-        <v>27.63928659493186</v>
+        <v>89.05847769581202</v>
       </c>
       <c r="D33" t="n">
-        <v>2.375853171254874</v>
+        <v>63.79504427213503</v>
       </c>
       <c r="E33" t="n">
-        <v>12.57586806201707</v>
+        <v>73.99505916289722</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>61.41919110088016</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>53.61816712123557</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>27.85790581094072</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.153055930183683</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>11.83082260787585</v>
       </c>
       <c r="S33" t="n">
-        <v>26.61395871045394</v>
+        <v>86.63395132882941</v>
       </c>
       <c r="T33" t="n">
-        <v>55.09551630143773</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U33" t="n">
-        <v>80.87216968759094</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V33" t="n">
-        <v>87.73137475604139</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W33" t="n">
-        <v>106.6257707675357</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X33" t="n">
-        <v>60.7037728100936</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.61348338392048</v>
+        <v>122.0326744848006</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.76276778855342</v>
+        <v>96.18195888943357</v>
       </c>
       <c r="C34" t="n">
-        <v>22.17760870524396</v>
+        <v>83.59679980612411</v>
       </c>
       <c r="D34" t="n">
-        <v>3.546260624828477</v>
+        <v>64.96545172570863</v>
       </c>
       <c r="E34" t="n">
-        <v>1.364750253185292</v>
+        <v>62.78394135406545</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3518356295473666</v>
+        <v>61.77102673042752</v>
       </c>
       <c r="G34" t="n">
-        <v>22.92176696507488</v>
+        <v>84.27780497285498</v>
       </c>
       <c r="H34" t="n">
-        <v>17.1579601140557</v>
+        <v>78.01566280537348</v>
       </c>
       <c r="I34" t="n">
-        <v>10.38126253387441</v>
+        <v>69.90126788952723</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.244235141994665</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.22417898378561</v>
+        <v>90.8037773712757</v>
       </c>
       <c r="S34" t="n">
-        <v>78.94738564358838</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T34" t="n">
-        <v>82.87637703489762</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U34" t="n">
-        <v>141.249816963107</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V34" t="n">
-        <v>107.0684309304441</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W34" t="n">
-        <v>141.4537859432071</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X34" t="n">
-        <v>80.64044299565327</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.51544095871091</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.6646292700967</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2036793776237</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D35" t="n">
-        <v>209.6138292272991</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E35" t="n">
-        <v>236.8611576788779</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8068333483276</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G35" t="n">
-        <v>270.2335251217512</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H35" t="n">
-        <v>194.4055897223833</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I35" t="n">
-        <v>65.40667717702203</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.799905547765803</v>
+        <v>57.37526039277559</v>
       </c>
       <c r="S35" t="n">
-        <v>63.95085719286146</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T35" t="n">
-        <v>78.02663717074748</v>
+        <v>138.8295244774649</v>
       </c>
       <c r="U35" t="n">
-        <v>106.2764405144526</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V35" t="n">
-        <v>182.683046076751</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1717563240291</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6618882850852</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.1687262626697</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.46397125648346</v>
+        <v>82.88316235736362</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63928659493186</v>
+        <v>89.05847769581202</v>
       </c>
       <c r="D36" t="n">
-        <v>2.375853171254874</v>
+        <v>63.79504427213503</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57586806201707</v>
+        <v>73.99505916289722</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>61.41919110088016</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>53.61816712123557</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>27.85790581094072</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.153055930183683</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>11.83082260787585</v>
       </c>
       <c r="S36" t="n">
-        <v>26.61395871045394</v>
+        <v>86.63395132882941</v>
       </c>
       <c r="T36" t="n">
-        <v>55.09551630143773</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U36" t="n">
-        <v>80.87216968759094</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V36" t="n">
-        <v>87.73137475604139</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W36" t="n">
-        <v>106.6257707675357</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X36" t="n">
-        <v>60.7037728100936</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.61348338392048</v>
+        <v>122.0326744848006</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.76276778855342</v>
+        <v>96.18195888943357</v>
       </c>
       <c r="C37" t="n">
-        <v>22.17760870524396</v>
+        <v>83.59679980612411</v>
       </c>
       <c r="D37" t="n">
-        <v>3.546260624828477</v>
+        <v>64.96545172570863</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364750253185292</v>
+        <v>62.78394135406545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3518356295473666</v>
+        <v>61.77102673042752</v>
       </c>
       <c r="G37" t="n">
-        <v>22.92176696507488</v>
+        <v>84.27780497285498</v>
       </c>
       <c r="H37" t="n">
-        <v>17.1579601140557</v>
+        <v>78.01566280537348</v>
       </c>
       <c r="I37" t="n">
-        <v>10.38126253387441</v>
+        <v>69.90126788952723</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.244235141994665</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.22417898378561</v>
+        <v>90.8037773712757</v>
       </c>
       <c r="S37" t="n">
-        <v>78.94738564358838</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T37" t="n">
-        <v>82.87637703489762</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U37" t="n">
-        <v>141.249816963107</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0684309304441</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W37" t="n">
-        <v>141.4537859432071</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X37" t="n">
-        <v>80.64044299565327</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.51544095871091</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.6646292700967</v>
+        <v>299.0838203709769</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2036793776237</v>
+        <v>281.6228704785038</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6138292272991</v>
+        <v>271.0330203281792</v>
       </c>
       <c r="E38" t="n">
-        <v>236.8611576788779</v>
+        <v>298.2803487797581</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8068333483276</v>
+        <v>323.2260244492077</v>
       </c>
       <c r="G38" t="n">
-        <v>270.2335251217512</v>
+        <v>331.5119272348157</v>
       </c>
       <c r="H38" t="n">
-        <v>194.4055897223833</v>
+        <v>254.3829256017971</v>
       </c>
       <c r="I38" t="n">
-        <v>65.40667717702203</v>
+        <v>121.3981008251421</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.799905547765803</v>
+        <v>57.37526039277559</v>
       </c>
       <c r="S38" t="n">
-        <v>63.95085719286146</v>
+        <v>122.1618192338941</v>
       </c>
       <c r="T38" t="n">
-        <v>78.02663717074748</v>
+        <v>138.8295244774649</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2764405144526</v>
+        <v>167.6843684963075</v>
       </c>
       <c r="V38" t="n">
-        <v>182.683046076751</v>
+        <v>244.1022371776312</v>
       </c>
       <c r="W38" t="n">
-        <v>204.1717563240291</v>
+        <v>265.5909474249093</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6618882850852</v>
+        <v>286.0810793859653</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.1687262626697</v>
+        <v>302.5879173635499</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.46397125648346</v>
+        <v>82.88316235736362</v>
       </c>
       <c r="C39" t="n">
-        <v>27.63928659493186</v>
+        <v>89.05847769581202</v>
       </c>
       <c r="D39" t="n">
-        <v>2.375853171254874</v>
+        <v>63.79504427213503</v>
       </c>
       <c r="E39" t="n">
-        <v>12.57586806201707</v>
+        <v>73.99505916289722</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>61.41919110088016</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>53.61816712123557</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>27.85790581094072</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.153055930183683</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>11.83082260787585</v>
       </c>
       <c r="S39" t="n">
-        <v>26.61395871045394</v>
+        <v>86.63395132882941</v>
       </c>
       <c r="T39" t="n">
-        <v>55.09551630143773</v>
+        <v>116.2110796796681</v>
       </c>
       <c r="U39" t="n">
-        <v>80.87216968759094</v>
+        <v>142.2864049496901</v>
       </c>
       <c r="V39" t="n">
-        <v>87.73137475604139</v>
+        <v>149.1505658569216</v>
       </c>
       <c r="W39" t="n">
-        <v>106.6257707675357</v>
+        <v>168.0449618684159</v>
       </c>
       <c r="X39" t="n">
-        <v>60.7037728100936</v>
+        <v>122.1229639109738</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.61348338392048</v>
+        <v>122.0326744848006</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.76276778855342</v>
+        <v>96.18195888943357</v>
       </c>
       <c r="C40" t="n">
-        <v>22.17760870524396</v>
+        <v>83.59679980612411</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546260624828477</v>
+        <v>64.96545172570863</v>
       </c>
       <c r="E40" t="n">
-        <v>1.364750253185292</v>
+        <v>62.78394135406545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3518356295473666</v>
+        <v>61.77102673042752</v>
       </c>
       <c r="G40" t="n">
-        <v>22.92176696507488</v>
+        <v>84.27780497285498</v>
       </c>
       <c r="H40" t="n">
-        <v>17.1579601140557</v>
+        <v>78.01566280537348</v>
       </c>
       <c r="I40" t="n">
-        <v>10.38126253387441</v>
+        <v>69.90126788952723</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.244235141994665</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.22417898378561</v>
+        <v>90.8037773712757</v>
       </c>
       <c r="S40" t="n">
-        <v>78.94738564358838</v>
+        <v>139.2659905674429</v>
       </c>
       <c r="T40" t="n">
-        <v>82.87637703489762</v>
+        <v>144.0257321925321</v>
       </c>
       <c r="U40" t="n">
-        <v>141.249816963107</v>
+        <v>202.6655633498181</v>
       </c>
       <c r="V40" t="n">
-        <v>107.0684309304441</v>
+        <v>168.4876220313243</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4537859432071</v>
+        <v>202.8729770440873</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64044299565327</v>
+        <v>142.0596340965334</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.51544095871091</v>
+        <v>134.9346320595911</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.3903245002699</v>
+        <v>367.8015910177685</v>
       </c>
       <c r="C41" t="n">
-        <v>227.9293746077969</v>
+        <v>350.3406411252955</v>
       </c>
       <c r="D41" t="n">
-        <v>217.3395244574723</v>
+        <v>339.7507909749709</v>
       </c>
       <c r="E41" t="n">
-        <v>244.5868529090511</v>
+        <v>366.9981194265497</v>
       </c>
       <c r="F41" t="n">
-        <v>269.5325285785008</v>
+        <v>391.9437950959994</v>
       </c>
       <c r="G41" t="n">
-        <v>277.9592203519244</v>
+        <v>400.2296978816074</v>
       </c>
       <c r="H41" t="n">
-        <v>202.1312849525565</v>
+        <v>323.1006962485888</v>
       </c>
       <c r="I41" t="n">
-        <v>73.13237240719528</v>
+        <v>190.1158714719338</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.52560077793905</v>
+        <v>126.0930310395673</v>
       </c>
       <c r="S41" t="n">
-        <v>71.67655242303471</v>
+        <v>190.8795898806858</v>
       </c>
       <c r="T41" t="n">
-        <v>85.75233240092072</v>
+        <v>207.5472951242567</v>
       </c>
       <c r="U41" t="n">
-        <v>114.0021357446259</v>
+        <v>236.4021391430992</v>
       </c>
       <c r="V41" t="n">
-        <v>190.4087413069243</v>
+        <v>312.8200078244229</v>
       </c>
       <c r="W41" t="n">
-        <v>211.8974515542024</v>
+        <v>334.308718071701</v>
       </c>
       <c r="X41" t="n">
-        <v>232.3875835152584</v>
+        <v>354.798850032757</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.894421492843</v>
+        <v>371.3056880103416</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.18966648665671</v>
+        <v>151.6009330041553</v>
       </c>
       <c r="C42" t="n">
-        <v>35.3649818251051</v>
+        <v>157.7762483426037</v>
       </c>
       <c r="D42" t="n">
-        <v>10.10154840142812</v>
+        <v>132.5128149189268</v>
       </c>
       <c r="E42" t="n">
-        <v>20.30156329219031</v>
+        <v>142.7128298096889</v>
       </c>
       <c r="F42" t="n">
-        <v>7.725695230173244</v>
+        <v>130.1369617476719</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>122.3359377680273</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>96.57567645773244</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>71.8708265769754</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.54859325466757</v>
       </c>
       <c r="S42" t="n">
-        <v>34.33965394062719</v>
+        <v>155.3517219756211</v>
       </c>
       <c r="T42" t="n">
-        <v>62.82121153161097</v>
+        <v>184.9288503264598</v>
       </c>
       <c r="U42" t="n">
-        <v>88.59786491776418</v>
+        <v>211.0041755964818</v>
       </c>
       <c r="V42" t="n">
-        <v>95.45706998621463</v>
+        <v>217.8683365037133</v>
       </c>
       <c r="W42" t="n">
-        <v>114.351465997709</v>
+        <v>236.7627325152076</v>
       </c>
       <c r="X42" t="n">
-        <v>68.42946804026684</v>
+        <v>190.8407345577655</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.33917861409373</v>
+        <v>190.7504451315924</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.48846301872666</v>
+        <v>164.8997295362253</v>
       </c>
       <c r="C43" t="n">
-        <v>29.9033039354172</v>
+        <v>152.3145704529158</v>
       </c>
       <c r="D43" t="n">
-        <v>11.27195585500172</v>
+        <v>133.6832223725004</v>
       </c>
       <c r="E43" t="n">
-        <v>9.090445483358536</v>
+        <v>131.5017120008572</v>
       </c>
       <c r="F43" t="n">
-        <v>8.077530859720611</v>
+        <v>130.4887973772192</v>
       </c>
       <c r="G43" t="n">
-        <v>30.64746219524812</v>
+        <v>152.9955756196467</v>
       </c>
       <c r="H43" t="n">
-        <v>24.88365534422894</v>
+        <v>146.7334334521652</v>
       </c>
       <c r="I43" t="n">
-        <v>18.10695776404765</v>
+        <v>138.619038536319</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>73.96200578878639</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.94158223739446</v>
       </c>
       <c r="R43" t="n">
-        <v>39.94987421395885</v>
+        <v>159.5215480180674</v>
       </c>
       <c r="S43" t="n">
-        <v>86.67308087376162</v>
+        <v>207.9837612142346</v>
       </c>
       <c r="T43" t="n">
-        <v>90.60207226507086</v>
+        <v>212.7435028393238</v>
       </c>
       <c r="U43" t="n">
-        <v>148.9755121932803</v>
+        <v>271.3833339966097</v>
       </c>
       <c r="V43" t="n">
-        <v>114.7941261606174</v>
+        <v>237.205392678116</v>
       </c>
       <c r="W43" t="n">
-        <v>149.1794811733804</v>
+        <v>271.590747690879</v>
       </c>
       <c r="X43" t="n">
-        <v>88.36613822582652</v>
+        <v>210.7774047433251</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.24113618888416</v>
+        <v>203.6524027063828</v>
       </c>
     </row>
     <row r="44">
@@ -25862,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>367.8015910177685</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>350.3406411252955</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>339.7507909749709</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>366.9981194265497</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>391.9437950959994</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>400.2296978816074</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>323.1006962485888</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>190.1158714719338</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>126.0930310395673</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>190.8795898806858</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>207.5472951242567</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>236.4021391430992</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>312.8200078244229</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>334.308718071701</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>354.798850032757</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>371.3056880103416</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>151.6009330041553</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>157.7762483426037</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>132.5128149189268</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>142.7128298096889</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>130.1369617476719</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>122.3359377680273</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>96.57567645773244</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>71.8708265769754</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>80.54859325466757</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>155.3517219756211</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>184.9288503264598</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>211.0041755964818</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>217.8683365037133</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>236.7627325152076</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>190.8407345577655</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>190.7504451315924</v>
       </c>
     </row>
     <row r="46">
@@ -26020,34 +26022,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.8997295362253</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3145704529158</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>133.6832223725004</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5017120008572</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4887973772192</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>152.9955756196467</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>146.7334334521652</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>138.619038536319</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>73.96200578878639</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,34 +26064,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>65.94158223739446</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>159.5215480180674</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>207.9837612142346</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>212.7435028393238</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>271.3833339966097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.205392678116</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>271.590747690879</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7774047433251</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>203.6524027063828</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328576.2892033489</v>
+        <v>470323.6473177277</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498789.7536365564</v>
+        <v>470323.6473177277</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498789.7536365564</v>
+        <v>470323.6473177277</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498789.7536365564</v>
+        <v>470323.6473177277</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498789.7536365564</v>
+        <v>470323.6473177277</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>489889.9953718869</v>
+        <v>444241.6001834912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606645.9479462404</v>
+        <v>444241.6001834912</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606645.9479462404</v>
+        <v>476220.2714992877</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606645.9479462404</v>
+        <v>476220.2714992877</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606645.9479462404</v>
+        <v>476220.2714992877</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>591582.696414258</v>
+        <v>328839.3884691746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>301020.7354880499</v>
+        <v>328839.3884691746</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>696384.8879094826</v>
       </c>
       <c r="E2" t="n">
-        <v>208787.2790234636</v>
+        <v>350687.6526189674</v>
       </c>
       <c r="F2" t="n">
-        <v>369544.4398770484</v>
+        <v>350687.6526189674</v>
       </c>
       <c r="G2" t="n">
-        <v>369544.4398770484</v>
+        <v>350687.6526189673</v>
       </c>
       <c r="H2" t="n">
-        <v>369544.4398770484</v>
+        <v>350687.6526189674</v>
       </c>
       <c r="I2" t="n">
-        <v>369544.4398770483</v>
+        <v>350687.6526189673</v>
       </c>
       <c r="J2" t="n">
-        <v>361139.1126270826</v>
+        <v>326054.6081032995</v>
       </c>
       <c r="K2" t="n">
-        <v>471408.6233917504</v>
+        <v>326054.6081032995</v>
       </c>
       <c r="L2" t="n">
-        <v>471408.6233917498</v>
+        <v>356256.6865682187</v>
       </c>
       <c r="M2" t="n">
-        <v>471408.6233917498</v>
+        <v>356256.6865682187</v>
       </c>
       <c r="N2" t="n">
-        <v>471408.6233917498</v>
+        <v>356256.6865682187</v>
       </c>
       <c r="O2" t="n">
-        <v>457182.2191670995</v>
+        <v>217063.6303731116</v>
       </c>
       <c r="P2" t="n">
-        <v>182762.5894034589</v>
+        <v>217063.6303731116</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>92835.25223201262</v>
       </c>
       <c r="F3" t="n">
-        <v>63449.60762007179</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6180.556184138595</v>
+        <v>54974.21651743338</v>
       </c>
       <c r="K3" t="n">
-        <v>109874.8137305685</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>11945.80051656961</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124982.7419867166</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="F4" t="n">
-        <v>232929.6767832395</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="G4" t="n">
-        <v>232929.6767832395</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="H4" t="n">
-        <v>232929.6767832395</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="I4" t="n">
-        <v>232929.6767832395</v>
+        <v>209257.5860052489</v>
       </c>
       <c r="J4" t="n">
-        <v>227285.5778965848</v>
+        <v>192716.7262634268</v>
       </c>
       <c r="K4" t="n">
-        <v>301330.5263477415</v>
+        <v>192716.7262634268</v>
       </c>
       <c r="L4" t="n">
-        <v>301330.5263477415</v>
+        <v>212997.1403828417</v>
       </c>
       <c r="M4" t="n">
-        <v>301330.5263477415</v>
+        <v>212997.1403828417</v>
       </c>
       <c r="N4" t="n">
-        <v>301330.5263477415</v>
+        <v>212997.1403828417</v>
       </c>
       <c r="O4" t="n">
-        <v>291777.6285416774</v>
+        <v>119530.3008253372</v>
       </c>
       <c r="P4" t="n">
-        <v>107507.4055314464</v>
+        <v>119530.3008253372</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="F5" t="n">
-        <v>7672.246135517689</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="G5" t="n">
-        <v>7672.246135517689</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="H5" t="n">
-        <v>7672.246135517689</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="I5" t="n">
-        <v>7672.246135517689</v>
+        <v>7562.445740326809</v>
       </c>
       <c r="J5" t="n">
-        <v>7317.172801070204</v>
+        <v>6540.497744182066</v>
       </c>
       <c r="K5" t="n">
-        <v>12195.82361669939</v>
+        <v>6540.497744182066</v>
       </c>
       <c r="L5" t="n">
-        <v>12195.82361669939</v>
+        <v>7795.837123716427</v>
       </c>
       <c r="M5" t="n">
-        <v>12195.82361669939</v>
+        <v>7795.837123716427</v>
       </c>
       <c r="N5" t="n">
-        <v>12195.82361669939</v>
+        <v>7795.837123716427</v>
       </c>
       <c r="O5" t="n">
-        <v>11546.33214439395</v>
+        <v>2018.802863211295</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2018.802863211295</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>210357.2973605174</v>
       </c>
       <c r="E6" t="n">
-        <v>73240.54074630406</v>
+        <v>41032.36864137908</v>
       </c>
       <c r="F6" t="n">
-        <v>65492.90933821944</v>
+        <v>133867.6208733917</v>
       </c>
       <c r="G6" t="n">
-        <v>128942.5169582912</v>
+        <v>133867.6208733917</v>
       </c>
       <c r="H6" t="n">
-        <v>128942.5169582912</v>
+        <v>133867.6208733917</v>
       </c>
       <c r="I6" t="n">
-        <v>128942.5169582911</v>
+        <v>133867.6208733917</v>
       </c>
       <c r="J6" t="n">
-        <v>120355.805745289</v>
+        <v>71823.16757825721</v>
       </c>
       <c r="K6" t="n">
-        <v>48007.45969674102</v>
+        <v>126797.3840956906</v>
       </c>
       <c r="L6" t="n">
-        <v>157882.2734273089</v>
+        <v>123517.908545091</v>
       </c>
       <c r="M6" t="n">
-        <v>157882.2734273089</v>
+        <v>135463.7090616606</v>
       </c>
       <c r="N6" t="n">
-        <v>157882.2734273089</v>
+        <v>135463.7090616606</v>
       </c>
       <c r="O6" t="n">
-        <v>153858.2584810281</v>
+        <v>95514.52668456317</v>
       </c>
       <c r="P6" t="n">
-        <v>75255.18387201249</v>
+        <v>95514.52668456318</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F2" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G2" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H2" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I2" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J2" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="L2" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="M2" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="O2" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F2" t="n">
-        <v>79.31200952508974</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.725695230173244</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K2" t="n">
-        <v>79.31200952508974</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.725695230173244</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="P2" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="12">
@@ -28166,31 +28168,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28287,34 +28289,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="15">
@@ -28403,31 +28405,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28484,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28524,34 +28526,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="18">
@@ -28640,31 +28642,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y18" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,34 +28763,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="21">
@@ -28877,31 +28879,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28925,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y21" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="22">
@@ -28956,34 +28958,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y22" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29037,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,31 +29082,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y24" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="C25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="D25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="E25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="F25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="H25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="I25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="J25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="S25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="T25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="U25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="V25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="W25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="X25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.26129887970225</v>
+        <v>80.87383288310646</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y27" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="R28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.03770475526298</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="30">
@@ -29588,31 +29590,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>68.71777064679172</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="33">
@@ -29825,31 +29827,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29946,34 +29948,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29985,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="36">
@@ -30062,31 +30064,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,31 +30267,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="39">
@@ -30299,31 +30301,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="C40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="F40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="I40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="S40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="T40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.0692123933839</v>
+        <v>83.65002129250372</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y41" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="42">
@@ -30536,31 +30538,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30657,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="R43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.3435171632106</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
     <row r="46">
@@ -30852,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.7275171330520187</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.116914878779989</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>7.638079550938412</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
